--- a/Repo/ADLWebService.xlsx
+++ b/Repo/ADLWebService.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>S.No.</t>
   </si>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,6 +650,74 @@
       </c>
       <c r="E13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Repo/ADLWebService.xlsx
+++ b/Repo/ADLWebService.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="UserProfile" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>S.No.</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,6 +432,7 @@
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -445,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
